--- a/doc/ue_FFrameEndSync_FRenderCommandFence.xlsx
+++ b/doc/ue_FFrameEndSync_FRenderCommandFence.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB109764-492E-4831-BB12-CB5025CFC21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="FFrameEndSync" sheetId="2" r:id="rId2"/>
+    <sheet name="r.OneFrameThreadLag" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>FRenderCommandFence</t>
   </si>
@@ -132,13 +135,124 @@
   </si>
   <si>
     <t>？？！！！为啥要新建Event？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameEndSync.Sync( CVarAllowOneFrameThreadLag-&gt;GetValueOnGameThread() != 0 );</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAutoConsoleVariable&lt;int32&gt; CVarAllowOneFrameThreadLag(</t>
+  </si>
+  <si>
+    <t>TEXT("r.OneFrameThreadLag"),</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>TEXT("Whether to allow the rendering thread to lag one frame behind the game thread (0: disabled, otherwise enabled)")</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_FrameSyncTime);</t>
+  </si>
+  <si>
+    <t>// this could be perhaps moved down to get greater parallelism</t>
+  </si>
+  <si>
+    <t>// Sync game and render thread. Either total sync or allowing one frame lag.</t>
+  </si>
+  <si>
+    <t>static auto CVarAllowOneFrameThreadLag = IConsoleManager::Get().FindTConsoleVariableDataInt(TEXT("r.OneFrameThreadLag"));</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>每一帧结束时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::Sync() const</t>
+  </si>
+  <si>
+    <t>FrameEndSync.Sync(CVarAllowOneFrameThreadLag-&gt;GetValueOnAnyThread() != 0);</t>
+  </si>
+  <si>
+    <t>FFrameEndSync::Sync( bool bAllowOneFrameThreadLag)</t>
+  </si>
+  <si>
+    <t>原理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( bAllowOneFrameThreadLag )</t>
+  </si>
+  <si>
+    <t>如果需要延迟一帧等待渲染</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fence[EventIndex].Wait(bEmptyGameThreadTasks); </t>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要bSyncToRHIAndGPU，不同的处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果需要SYNC，则通知RHI线程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义完成的等待信号Event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompletionEvent = FGraphEvent::CreateGraphEvent();</t>
+  </si>
+  <si>
+    <t>否则投递到RenderThread</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有开启延迟，则等待自己当前帧的渲染</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果开启了延迟，等待上一帧的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是投递一个空事件到RT，等待它把自己的任务处理完调用这个空事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待RHI同步</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,7 +756,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -665,4 +779,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9FC63E-3905-44EB-92B4-D2CC3756D821}">
+  <dimension ref="B4:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B9332E-DAD6-49C2-AF27-963018DA511E}">
+  <dimension ref="B2:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_FFrameEndSync_FRenderCommandFence.xlsx
+++ b/doc/ue_FFrameEndSync_FRenderCommandFence.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB109764-492E-4831-BB12-CB5025CFC21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA84C18-80B6-4B78-89EF-F3F517381E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="FFrameEndSync" sheetId="2" r:id="rId2"/>
     <sheet name="r.OneFrameThreadLag" sheetId="3" r:id="rId3"/>
+    <sheet name="Render等待RHI" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>FRenderCommandFence</t>
   </si>
@@ -246,6 +247,47 @@
   </si>
   <si>
     <t>等待RHI同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (GRHINeedsExtraDeletionLatency || !GRHICommandList.Bypass())</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_FMobileSceneRenderer_PostInitViewsFlushDel);</t>
+  </si>
+  <si>
+    <t>// we will probably stall on occlusion queries, so might as well have the RHI thread and GPU work while we wait.</t>
+  </si>
+  <si>
+    <t>// Also when doing RHI thread this is the only spot that will process pending deletes</t>
+  </si>
+  <si>
+    <t>FRHICommandListExecutor::GetImmediateCommandList().PollOcclusionQueries();</t>
+  </si>
+  <si>
+    <t>FRHICommandListExecutor::GetImmediateCommandList().ImmediateFlush(EImmediateFlushType::FlushRHIThreadFlushResources);</t>
+  </si>
+  <si>
+    <t>RenderThread会强制等待RHI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLATFORM_RHITHREAD_DEFAULT_BYPASS</t>
+  </si>
+  <si>
+    <t>各个平台下定义不一样</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android默认是0，需要强制等待RHI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS默认是1，不需要等待</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows默认是0，需要强制等待</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9FC63E-3905-44EB-92B4-D2CC3756D821}">
   <dimension ref="B4:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -1078,4 +1120,100 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6884A7F7-6505-43F4-B80B-B783F278A6A4}">
+  <dimension ref="B4:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_FFrameEndSync_FRenderCommandFence.xlsx
+++ b/doc/ue_FFrameEndSync_FRenderCommandFence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA84C18-80B6-4B78-89EF-F3F517381E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277377D2-A734-4B35-B26F-D2C57735113D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6884A7F7-6505-43F4-B80B-B783F278A6A4}">
   <dimension ref="B4:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
